--- a/Final FURs and Non-FURs - Overview.xlsx
+++ b/Final FURs and Non-FURs - Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\projects\TwinEU\WP3\T3.2\!GitHub-Documents\T3.2_Functional_specifications_of_pan-European_DT_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0B39A0-F289-4D46-8E53-53085F3E259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07692758-26B3-461C-AAE3-E4513187C271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="8" xr2:uid="{1EC336E7-9B8F-4023-BA48-614D005FA557}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" firstSheet="2" activeTab="3" xr2:uid="{1EC336E7-9B8F-4023-BA48-614D005FA557}"/>
   </bookViews>
   <sheets>
     <sheet name="Ge FURs" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="HUN FURs" sheetId="5" r:id="rId7"/>
     <sheet name="EAST-MEDIT. FURs" sheetId="7" r:id="rId8"/>
     <sheet name="Non-FURs" sheetId="2" r:id="rId9"/>
-    <sheet name="Enershare" sheetId="8" r:id="rId10"/>
-    <sheet name="Overview" sheetId="11" r:id="rId11"/>
+    <sheet name="Overview" sheetId="11" r:id="rId10"/>
+    <sheet name="Enershare" sheetId="8" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
@@ -10287,7 +10287,7 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10616,6 +10616,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -10652,15 +10658,6 @@
     <xf numFmtId="0" fontId="36" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -10679,12 +10676,19 @@
     <xf numFmtId="0" fontId="37" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
@@ -10709,10 +10713,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11049,43 +11049,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
     </row>
     <row r="9" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
@@ -12244,6 +12244,696 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75409A8D-CEEC-44C5-8836-03B2BE4112D6}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="8" max="8" width="71.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="132"/>
+      <c r="B1" s="132" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103" t="s">
+        <v>1962</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>1963</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>1964</v>
+      </c>
+      <c r="L1" s="94"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="133" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B2" s="134">
+        <v>3</v>
+      </c>
+      <c r="C2" s="134">
+        <v>24</v>
+      </c>
+      <c r="D2" s="134" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H2" s="103" t="s">
+        <v>1965</v>
+      </c>
+      <c r="I2" s="104">
+        <v>3</v>
+      </c>
+      <c r="J2" s="94">
+        <v>24</v>
+      </c>
+      <c r="K2" s="94" t="s">
+        <v>1966</v>
+      </c>
+      <c r="L2" s="94"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="135" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B3" s="134">
+        <v>4</v>
+      </c>
+      <c r="C3" s="134">
+        <v>35</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>1967</v>
+      </c>
+      <c r="I3" s="104">
+        <v>4</v>
+      </c>
+      <c r="J3" s="94">
+        <v>35</v>
+      </c>
+      <c r="K3" s="94" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L3" s="94"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="132" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C4" s="136">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J4" s="106" t="s">
+        <v>1971</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L4" s="94"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="132" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B5" s="137">
+        <v>5</v>
+      </c>
+      <c r="C5" s="136">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I5" s="109">
+        <v>5</v>
+      </c>
+      <c r="J5" s="106" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K5" s="94" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L5" s="94"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="133" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B6" s="134">
+        <v>8</v>
+      </c>
+      <c r="C6" s="134">
+        <v>65</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H6" s="103" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I6" s="104">
+        <v>8</v>
+      </c>
+      <c r="J6" s="94">
+        <v>64</v>
+      </c>
+      <c r="K6" s="94" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L6" s="94"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="133" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B7" s="134">
+        <v>3</v>
+      </c>
+      <c r="C7" s="134">
+        <v>28</v>
+      </c>
+      <c r="D7" s="134" t="s">
+        <v>2137</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I7" s="104">
+        <v>2</v>
+      </c>
+      <c r="J7" s="94">
+        <v>19</v>
+      </c>
+      <c r="K7" s="94" t="s">
+        <v>1979</v>
+      </c>
+      <c r="L7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="133" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B8" s="134">
+        <v>3</v>
+      </c>
+      <c r="C8" s="138">
+        <v>26</v>
+      </c>
+      <c r="D8" s="134" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>1980</v>
+      </c>
+      <c r="I8" s="104">
+        <v>2</v>
+      </c>
+      <c r="J8" s="106" t="s">
+        <v>1981</v>
+      </c>
+      <c r="K8" s="94" t="s">
+        <v>1982</v>
+      </c>
+      <c r="L8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="133" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B9" s="134">
+        <v>10</v>
+      </c>
+      <c r="C9" s="134">
+        <v>100</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I9" s="104">
+        <v>10</v>
+      </c>
+      <c r="J9" s="94">
+        <v>100</v>
+      </c>
+      <c r="K9" s="94" t="s">
+        <v>1983</v>
+      </c>
+      <c r="L9" s="94"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="139" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B10" s="140">
+        <v>50</v>
+      </c>
+      <c r="C10" s="140">
+        <v>430</v>
+      </c>
+      <c r="D10" s="139"/>
+      <c r="H10" s="107" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I10" s="108">
+        <v>48</v>
+      </c>
+      <c r="J10" s="108" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K10" s="107"/>
+      <c r="L10" s="94"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94" t="s">
+        <v>1986</v>
+      </c>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="102" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="110" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B27" s="111" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C27" s="111" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E27" s="111" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F27" s="111" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="153" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C28" s="113">
+        <v>2</v>
+      </c>
+      <c r="D28" s="113">
+        <v>19</v>
+      </c>
+      <c r="E28" s="156">
+        <v>4</v>
+      </c>
+      <c r="F28" s="156">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="154"/>
+      <c r="B29" s="112" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C29" s="113">
+        <v>1</v>
+      </c>
+      <c r="D29" s="113">
+        <v>9</v>
+      </c>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="155"/>
+      <c r="B30" s="112" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C30" s="113">
+        <v>1</v>
+      </c>
+      <c r="D30" s="113">
+        <v>7</v>
+      </c>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="153" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B31" s="114" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C31" s="115">
+        <v>5</v>
+      </c>
+      <c r="D31" s="115">
+        <v>37</v>
+      </c>
+      <c r="E31" s="159">
+        <v>16</v>
+      </c>
+      <c r="F31" s="159">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="154"/>
+      <c r="B32" s="114" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C32" s="114">
+        <v>2</v>
+      </c>
+      <c r="D32" s="114">
+        <v>19</v>
+      </c>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+    </row>
+    <row r="33" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="154"/>
+      <c r="B33" s="114" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C33" s="114">
+        <v>1</v>
+      </c>
+      <c r="D33" s="114">
+        <v>7</v>
+      </c>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="155"/>
+      <c r="B34" s="114" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C34" s="114">
+        <v>8</v>
+      </c>
+      <c r="D34" s="114">
+        <v>65</v>
+      </c>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+    </row>
+    <row r="35" spans="1:9" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="153" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B35" s="114" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="114">
+        <v>3</v>
+      </c>
+      <c r="D35" s="114">
+        <v>26</v>
+      </c>
+      <c r="E35" s="162">
+        <v>16</v>
+      </c>
+      <c r="F35" s="162">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="154"/>
+      <c r="B36" s="114" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C36" s="114">
+        <v>1</v>
+      </c>
+      <c r="D36" s="114">
+        <v>9</v>
+      </c>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+    </row>
+    <row r="37" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="154"/>
+      <c r="B37" s="114" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C37" s="114">
+        <v>2</v>
+      </c>
+      <c r="D37" s="114">
+        <v>19</v>
+      </c>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+    </row>
+    <row r="38" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="155"/>
+      <c r="B38" s="114" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C38" s="114">
+        <v>10</v>
+      </c>
+      <c r="D38" s="114">
+        <v>100</v>
+      </c>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+    </row>
+    <row r="39" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="153" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B39" s="114" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C39" s="114">
+        <v>1</v>
+      </c>
+      <c r="D39" s="114">
+        <v>5</v>
+      </c>
+      <c r="E39" s="162">
+        <v>14</v>
+      </c>
+      <c r="F39" s="162">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="155"/>
+      <c r="B40" s="114" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C40" s="114">
+        <v>13</v>
+      </c>
+      <c r="D40" s="114">
+        <v>107</v>
+      </c>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="116" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B41" s="117">
+        <v>8</v>
+      </c>
+      <c r="C41" s="117">
+        <v>50</v>
+      </c>
+      <c r="D41" s="117">
+        <v>429</v>
+      </c>
+      <c r="E41" s="117">
+        <v>50</v>
+      </c>
+      <c r="F41" s="117">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H44" s="123" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I44" s="120" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="44.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H45" s="124" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I45" s="121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H46" s="124" t="s">
+        <v>2006</v>
+      </c>
+      <c r="I46" s="121">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H47" s="124" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I47" s="121">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H48" s="124" t="s">
+        <v>2008</v>
+      </c>
+      <c r="I48" s="121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="83.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H49" s="124" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I49" s="121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H50" s="124" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I50" s="122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="119" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B53" s="120" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="118" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B54" s="113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="118" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B55" s="113">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58051C3D-25BF-42C8-80DE-1329C4450455}">
   <dimension ref="A4:N62"/>
   <sheetViews>
@@ -13533,696 +14223,6 @@
       <c r="N62" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75409A8D-CEEC-44C5-8836-03B2BE4112D6}">
-  <dimension ref="A1:L55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="71.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="132"/>
-      <c r="B1" s="132" t="s">
-        <v>1962</v>
-      </c>
-      <c r="C1" s="132" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D1" s="132" t="s">
-        <v>1964</v>
-      </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103" t="s">
-        <v>1962</v>
-      </c>
-      <c r="J1" s="103" t="s">
-        <v>1963</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>1964</v>
-      </c>
-      <c r="L1" s="94"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="133" t="s">
-        <v>1965</v>
-      </c>
-      <c r="B2" s="134">
-        <v>3</v>
-      </c>
-      <c r="C2" s="134">
-        <v>24</v>
-      </c>
-      <c r="D2" s="134" t="s">
-        <v>1966</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>1965</v>
-      </c>
-      <c r="I2" s="104">
-        <v>3</v>
-      </c>
-      <c r="J2" s="94">
-        <v>24</v>
-      </c>
-      <c r="K2" s="94" t="s">
-        <v>1966</v>
-      </c>
-      <c r="L2" s="94"/>
-    </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="135" t="s">
-        <v>1967</v>
-      </c>
-      <c r="B3" s="134">
-        <v>4</v>
-      </c>
-      <c r="C3" s="134">
-        <v>35</v>
-      </c>
-      <c r="D3" s="134" t="s">
-        <v>1968</v>
-      </c>
-      <c r="H3" s="105" t="s">
-        <v>1967</v>
-      </c>
-      <c r="I3" s="104">
-        <v>4</v>
-      </c>
-      <c r="J3" s="94">
-        <v>35</v>
-      </c>
-      <c r="K3" s="94" t="s">
-        <v>1968</v>
-      </c>
-      <c r="L3" s="94"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="132" t="s">
-        <v>1969</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C4" s="136">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H4" s="103" t="s">
-        <v>1969</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>1970</v>
-      </c>
-      <c r="J4" s="106" t="s">
-        <v>1971</v>
-      </c>
-      <c r="K4" s="94" t="s">
-        <v>1972</v>
-      </c>
-      <c r="L4" s="94"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="132" t="s">
-        <v>1973</v>
-      </c>
-      <c r="B5" s="137">
-        <v>5</v>
-      </c>
-      <c r="C5" s="136">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2205</v>
-      </c>
-      <c r="H5" s="103" t="s">
-        <v>1973</v>
-      </c>
-      <c r="I5" s="109">
-        <v>5</v>
-      </c>
-      <c r="J5" s="106" t="s">
-        <v>1974</v>
-      </c>
-      <c r="K5" s="94" t="s">
-        <v>1975</v>
-      </c>
-      <c r="L5" s="94"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="133" t="s">
-        <v>1976</v>
-      </c>
-      <c r="B6" s="134">
-        <v>8</v>
-      </c>
-      <c r="C6" s="134">
-        <v>65</v>
-      </c>
-      <c r="D6" s="134" t="s">
-        <v>2136</v>
-      </c>
-      <c r="H6" s="103" t="s">
-        <v>1976</v>
-      </c>
-      <c r="I6" s="104">
-        <v>8</v>
-      </c>
-      <c r="J6" s="94">
-        <v>64</v>
-      </c>
-      <c r="K6" s="94" t="s">
-        <v>1977</v>
-      </c>
-      <c r="L6" s="94"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="133" t="s">
-        <v>1978</v>
-      </c>
-      <c r="B7" s="134">
-        <v>3</v>
-      </c>
-      <c r="C7" s="134">
-        <v>28</v>
-      </c>
-      <c r="D7" s="134" t="s">
-        <v>2137</v>
-      </c>
-      <c r="H7" s="103" t="s">
-        <v>1978</v>
-      </c>
-      <c r="I7" s="104">
-        <v>2</v>
-      </c>
-      <c r="J7" s="94">
-        <v>19</v>
-      </c>
-      <c r="K7" s="94" t="s">
-        <v>1979</v>
-      </c>
-      <c r="L7" s="94"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="133" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B8" s="134">
-        <v>3</v>
-      </c>
-      <c r="C8" s="138">
-        <v>26</v>
-      </c>
-      <c r="D8" s="134" t="s">
-        <v>2138</v>
-      </c>
-      <c r="H8" s="103" t="s">
-        <v>1980</v>
-      </c>
-      <c r="I8" s="104">
-        <v>2</v>
-      </c>
-      <c r="J8" s="106" t="s">
-        <v>1981</v>
-      </c>
-      <c r="K8" s="94" t="s">
-        <v>1982</v>
-      </c>
-      <c r="L8" s="94"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="133" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B9" s="134">
-        <v>10</v>
-      </c>
-      <c r="C9" s="134">
-        <v>100</v>
-      </c>
-      <c r="D9" s="134" t="s">
-        <v>1983</v>
-      </c>
-      <c r="H9" s="103" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I9" s="104">
-        <v>10</v>
-      </c>
-      <c r="J9" s="94">
-        <v>100</v>
-      </c>
-      <c r="K9" s="94" t="s">
-        <v>1983</v>
-      </c>
-      <c r="L9" s="94"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="139" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B10" s="140">
-        <v>50</v>
-      </c>
-      <c r="C10" s="140">
-        <v>430</v>
-      </c>
-      <c r="D10" s="139"/>
-      <c r="H10" s="107" t="s">
-        <v>1984</v>
-      </c>
-      <c r="I10" s="108">
-        <v>48</v>
-      </c>
-      <c r="J10" s="108" t="s">
-        <v>1985</v>
-      </c>
-      <c r="K10" s="107"/>
-      <c r="L10" s="94"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94" t="s">
-        <v>1986</v>
-      </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="110" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D27" s="111" t="s">
-        <v>1996</v>
-      </c>
-      <c r="E27" s="111" t="s">
-        <v>1997</v>
-      </c>
-      <c r="F27" s="111" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="151" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C28" s="113">
-        <v>2</v>
-      </c>
-      <c r="D28" s="113">
-        <v>19</v>
-      </c>
-      <c r="E28" s="157">
-        <v>4</v>
-      </c>
-      <c r="F28" s="157">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="152"/>
-      <c r="B29" s="112" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C29" s="113">
-        <v>1</v>
-      </c>
-      <c r="D29" s="113">
-        <v>9</v>
-      </c>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="153"/>
-      <c r="B30" s="112" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C30" s="113">
-        <v>1</v>
-      </c>
-      <c r="D30" s="113">
-        <v>7</v>
-      </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="151" t="s">
-        <v>2001</v>
-      </c>
-      <c r="B31" s="114" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C31" s="115">
-        <v>5</v>
-      </c>
-      <c r="D31" s="115">
-        <v>38</v>
-      </c>
-      <c r="E31" s="160">
-        <v>16</v>
-      </c>
-      <c r="F31" s="160">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="152"/>
-      <c r="B32" s="114" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C32" s="114">
-        <v>2</v>
-      </c>
-      <c r="D32" s="114">
-        <v>19</v>
-      </c>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="152"/>
-      <c r="B33" s="114" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C33" s="114">
-        <v>1</v>
-      </c>
-      <c r="D33" s="114">
-        <v>7</v>
-      </c>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="153"/>
-      <c r="B34" s="114" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C34" s="114">
-        <v>8</v>
-      </c>
-      <c r="D34" s="114">
-        <v>65</v>
-      </c>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-    </row>
-    <row r="35" spans="1:9" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="151" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B35" s="114" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C35" s="114">
-        <v>3</v>
-      </c>
-      <c r="D35" s="114">
-        <v>26</v>
-      </c>
-      <c r="E35" s="154">
-        <v>16</v>
-      </c>
-      <c r="F35" s="154">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="152"/>
-      <c r="B36" s="114" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C36" s="114">
-        <v>1</v>
-      </c>
-      <c r="D36" s="114">
-        <v>9</v>
-      </c>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-    </row>
-    <row r="37" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="152"/>
-      <c r="B37" s="114" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C37" s="114">
-        <v>2</v>
-      </c>
-      <c r="D37" s="114">
-        <v>19</v>
-      </c>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-    </row>
-    <row r="38" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="153"/>
-      <c r="B38" s="114" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C38" s="114">
-        <v>10</v>
-      </c>
-      <c r="D38" s="114">
-        <v>100</v>
-      </c>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-    </row>
-    <row r="39" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="151" t="s">
-        <v>2003</v>
-      </c>
-      <c r="B39" s="114" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C39" s="114">
-        <v>1</v>
-      </c>
-      <c r="D39" s="114">
-        <v>5</v>
-      </c>
-      <c r="E39" s="154">
-        <v>14</v>
-      </c>
-      <c r="F39" s="154">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="153"/>
-      <c r="B40" s="114" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C40" s="114">
-        <v>13</v>
-      </c>
-      <c r="D40" s="114">
-        <v>107</v>
-      </c>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="116" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B41" s="117">
-        <v>8</v>
-      </c>
-      <c r="C41" s="117">
-        <v>50</v>
-      </c>
-      <c r="D41" s="117">
-        <v>430</v>
-      </c>
-      <c r="E41" s="117">
-        <v>50</v>
-      </c>
-      <c r="F41" s="117">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H44" s="123" t="s">
-        <v>2004</v>
-      </c>
-      <c r="I44" s="120" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="44.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H45" s="124" t="s">
-        <v>2005</v>
-      </c>
-      <c r="I45" s="121">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H46" s="124" t="s">
-        <v>2006</v>
-      </c>
-      <c r="I46" s="121">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H47" s="124" t="s">
-        <v>2007</v>
-      </c>
-      <c r="I47" s="121">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H48" s="124" t="s">
-        <v>2008</v>
-      </c>
-      <c r="I48" s="121">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="83.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H49" s="124" t="s">
-        <v>2009</v>
-      </c>
-      <c r="I49" s="121">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H50" s="124" t="s">
-        <v>2010</v>
-      </c>
-      <c r="I50" s="122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="119" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B53" s="120" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="118" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B54" s="113">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="118" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B55" s="113">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
@@ -14261,46 +14261,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="146" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="145" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
     </row>
     <row r="5" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -16051,29 +16051,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
     </row>
     <row r="3" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="147" t="s">
         <v>565</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="94" t="s">
@@ -17786,8 +17786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404F557D-9777-4DAC-A8B5-33F7D51AC88E}">
   <dimension ref="A4:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17811,26 +17811,26 @@
       <c r="A5" t="s">
         <v>885</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="146" t="s">
         <v>886</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
       <c r="G5" s="10" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="146" t="s">
         <v>888</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
       <c r="G7" t="s">
         <v>889</v>
       </c>
@@ -17839,13 +17839,13 @@
       <c r="A8" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="149" t="s">
         <v>891</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="10" t="s">
         <v>892</v>
       </c>
@@ -18210,7 +18210,7 @@
       <c r="F31" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="G31" s="163" t="s">
+      <c r="G31" s="142" t="s">
         <v>960</v>
       </c>
     </row>
@@ -18231,7 +18231,7 @@
       <c r="F32" s="89" t="s">
         <v>959</v>
       </c>
-      <c r="G32" s="164" t="s">
+      <c r="G32" s="143" t="s">
         <v>964</v>
       </c>
     </row>
@@ -18252,7 +18252,7 @@
       <c r="F33" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="G33" s="163" t="s">
+      <c r="G33" s="142" t="s">
         <v>969</v>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       <c r="F34" s="89" t="s">
         <v>959</v>
       </c>
-      <c r="G34" s="164" t="s">
+      <c r="G34" s="143" t="s">
         <v>973</v>
       </c>
     </row>
@@ -18294,7 +18294,7 @@
       <c r="F35" s="91" t="s">
         <v>959</v>
       </c>
-      <c r="G35" s="164" t="s">
+      <c r="G35" s="143" t="s">
         <v>976</v>
       </c>
     </row>
@@ -18315,7 +18315,7 @@
       <c r="F36" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="G36" s="163" t="s">
+      <c r="G36" s="142" t="s">
         <v>973</v>
       </c>
     </row>
@@ -18336,7 +18336,7 @@
       <c r="F37" s="91" t="s">
         <v>959</v>
       </c>
-      <c r="G37" s="164" t="s">
+      <c r="G37" s="143" t="s">
         <v>984</v>
       </c>
     </row>
@@ -18574,21 +18574,21 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:6" s="166" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A51" s="28" t="s">
         <v>2191</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="28"/>
+      <c r="C51" s="165" t="s">
         <v>2193</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="165" t="s">
         <v>2194</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="28" t="s">
         <v>2192</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
@@ -18671,72 +18671,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="148"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="148"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
@@ -18750,13 +18750,13 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="146" t="s">
         <v>1015</v>
       </c>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -19367,30 +19367,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="146" t="s">
         <v>1076</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="5" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="146" t="s">
         <v>1077</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
     </row>
     <row r="6" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
@@ -19404,13 +19404,13 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="110.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="146" t="s">
         <v>1078</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -19418,40 +19418,40 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="146" t="s">
         <v>1079</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
     </row>
     <row r="10" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="145" t="s">
         <v>1080</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="146" t="s">
         <v>1081</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -19872,7 +19872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FF300A-3906-48FE-8AC8-9300B6B09157}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:D42"/>
     </sheetView>
   </sheetViews>
@@ -19887,109 +19887,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>1160</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="148"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="146" t="s">
         <v>1161</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="148"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="146" t="s">
         <v>2015</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
@@ -20490,7 +20490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943D7610-2A45-41A6-AEBD-0B6D0CE43DFE}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:D31"/>
     </sheetView>
   </sheetViews>
@@ -20504,59 +20504,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>1192</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="147" t="s">
         <v>1193</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="147" t="s">
         <v>1194</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="147" t="s">
         <v>1195</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
     </row>
     <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="146" t="s">
         <v>1196</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
@@ -20568,26 +20568,26 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="146" t="s">
         <v>1197</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
     </row>
     <row r="10" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="146" t="s">
         <v>1198</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
     </row>
     <row r="15" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
@@ -21274,7 +21274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC03D8C-369A-4521-9C45-2128907A23A5}">
   <dimension ref="A1:Q189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -21299,15 +21299,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="151" t="s">
         <v>1311</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -26238,15 +26238,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa">
@@ -26255,6 +26246,15 @@
     <TaxCatchAll xmlns="6eb2050a-b6f7-4b0c-983c-e4078fb34326" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26277,26 +26277,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B133FF0C-9036-42CF-A0D0-12ED50A1E5CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005A226-8E27-4CCD-8501-04EB607E9F78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005A226-8E27-4CCD-8501-04EB607E9F78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B133FF0C-9036-42CF-A0D0-12ED50A1E5CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
-    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
